--- a/RedCap_SubjectsInfo/SGLT2.sn.aggr.combine.info.xlsx
+++ b/RedCap_SubjectsInfo/SGLT2.sn.aggr.combine.info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="256">
   <si>
     <t>Sequencing_Date</t>
   </si>
@@ -218,7 +218,7 @@
     <t>Record ID: 766-</t>
   </si>
   <si>
-    <t>subject_id</t>
+    <t>patient_id</t>
   </si>
   <si>
     <t>Event Name</t>
@@ -263,7 +263,7 @@
     <t>Age_Group</t>
   </si>
   <si>
-    <t>Diabetes</t>
+    <t>dbc12_overwt</t>
   </si>
   <si>
     <t>Group Assignment:</t>
@@ -353,7 +353,7 @@
     <t>76638_V5_combine_force9455</t>
   </si>
   <si>
-    <t>76643_V11_combine_force24013</t>
+    <t>76643_V11_combine_force24368</t>
   </si>
   <si>
     <t>76643_V5_combine</t>
@@ -371,10 +371,10 @@
     <t>76656_V11_combine_force13551</t>
   </si>
   <si>
-    <t>76658_V11_combine_force23181</t>
-  </si>
-  <si>
-    <t>76660_V5_combine_force17531</t>
+    <t>76658_V11_combine_force23868</t>
+  </si>
+  <si>
+    <t>76660_V5_combine_force17696</t>
   </si>
   <si>
     <t>76661_V5_combine_force14743</t>
@@ -401,7 +401,7 @@
     <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine_force9455/outs/molecule_info.h5</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24013/outs/molecule_info.h5</t>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24368/outs/molecule_info.h5</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_combine/outs/molecule_info.h5</t>
@@ -419,10 +419,10 @@
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76656_V11_combine_force13551/outs/molecule_info.h5</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23181/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17531/outs/molecule_info.h5</t>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23868/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17696/outs/molecule_info.h5</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76661_V5_combine_force14743/outs/molecule_info.h5</t>
@@ -452,7 +452,7 @@
     <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine_force9455/outs/metrics_summary.csv</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24013/outs/metrics_summary.csv</t>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24368/outs/metrics_summary.csv</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_combine/outs/metrics_summary.csv</t>
@@ -470,10 +470,10 @@
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76656_V11_combine_force13551/outs/metrics_summary.csv</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23181/outs/metrics_summary.csv</t>
-  </si>
-  <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17531/outs/metrics_summary.csv</t>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23868/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17696/outs/metrics_summary.csv</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76661_V5_combine_force14743/outs/metrics_summary.csv</t>
@@ -720,45 +720,6 @@
   </si>
   <si>
     <t>Visit 11</t>
-  </si>
-  <si>
-    <t>31.49</t>
-  </si>
-  <si>
-    <t>36.69</t>
-  </si>
-  <si>
-    <t>34.64</t>
-  </si>
-  <si>
-    <t>36.409999999999997</t>
-  </si>
-  <si>
-    <t>36.75</t>
-  </si>
-  <si>
-    <t>36.770000000000003</t>
-  </si>
-  <si>
-    <t>39.86</t>
-  </si>
-  <si>
-    <t>35.630000000000003</t>
-  </si>
-  <si>
-    <t>35.06</t>
-  </si>
-  <si>
-    <t>31.66</t>
-  </si>
-  <si>
-    <t>32.78</t>
-  </si>
-  <si>
-    <t>33.770000000000003</t>
-  </si>
-  <si>
-    <t>35.75</t>
   </si>
   <si>
     <t>Obese</t>
@@ -1346,11 +1307,11 @@
       <c r="BU2" t="n">
         <v>158.6</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BV2" t="n">
+        <v>31.49</v>
+      </c>
+      <c r="BW2" t="s">
         <v>236</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>249</v>
       </c>
       <c r="BX2" t="n">
         <v>96.0</v>
@@ -1359,28 +1320,28 @@
         <v>5.9</v>
       </c>
       <c r="BZ2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="CA2" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="CB2" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="CC2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="CD2" t="n">
         <v>67.0</v>
       </c>
       <c r="CE2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="CF2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="CG2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3">
@@ -1603,11 +1564,11 @@
       <c r="BU3" t="n">
         <v>200.6</v>
       </c>
-      <c r="BV3" t="s">
-        <v>237</v>
+      <c r="BV3" t="n">
+        <v>36.69</v>
       </c>
       <c r="BW3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="BX3" t="n">
         <v>91.0</v>
@@ -1616,28 +1577,28 @@
         <v>5.6</v>
       </c>
       <c r="BZ3" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="CA3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="CB3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="CC3" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="CD3" t="n">
         <v>63.0</v>
       </c>
       <c r="CE3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="CF3" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="CG3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4">
@@ -1860,11 +1821,11 @@
       <c r="BU4" t="n">
         <v>194.0</v>
       </c>
-      <c r="BV4" t="s">
-        <v>238</v>
+      <c r="BV4" t="n">
+        <v>34.64</v>
       </c>
       <c r="BW4" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="BX4" t="n">
         <v>100.0</v>
@@ -1873,28 +1834,28 @@
         <v>5.9</v>
       </c>
       <c r="BZ4" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="CA4" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="CB4" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="CC4" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="CD4" t="n">
         <v>63.0</v>
       </c>
       <c r="CE4" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="CF4" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="CG4" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5">
@@ -2117,11 +2078,11 @@
       <c r="BU5" t="n">
         <v>246.6</v>
       </c>
-      <c r="BV5" t="s">
-        <v>239</v>
+      <c r="BV5" t="n">
+        <v>36.41</v>
       </c>
       <c r="BW5" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="BX5" t="n">
         <v>114.0</v>
@@ -2130,28 +2091,28 @@
         <v>5.8</v>
       </c>
       <c r="BZ5" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="CA5" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="CB5" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="CC5" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="CD5" t="n">
         <v>67.0</v>
       </c>
       <c r="CE5" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="CF5" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="CG5" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6">
@@ -2186,19 +2147,19 @@
         <v>108</v>
       </c>
       <c r="K6" t="n">
-        <v>293.0</v>
+        <v>299.0</v>
       </c>
       <c r="L6" t="s">
         <v>113</v>
       </c>
       <c r="M6" t="n">
-        <v>24013.0</v>
+        <v>24368.0</v>
       </c>
       <c r="N6" t="n">
-        <v>88270.0</v>
+        <v>86984.0</v>
       </c>
       <c r="O6" t="n">
-        <v>2702.0</v>
+        <v>2656.0</v>
       </c>
       <c r="P6" t="n">
         <v>2.11963207E9</v>
@@ -2243,13 +2204,13 @@
         <v>20.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>30216.0</v>
+        <v>30217.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>5774.0</v>
+        <v>5594.0</v>
       </c>
       <c r="AG6" t="s">
         <v>122</v>
@@ -2258,7 +2219,7 @@
         <v>#N/A</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.022083E7</v>
+        <v>2.0220912E7</v>
       </c>
       <c r="AJ6" t="s">
         <v>123</v>
@@ -2374,11 +2335,11 @@
       <c r="BU6" t="n">
         <v>222.2</v>
       </c>
-      <c r="BV6" t="s">
-        <v>240</v>
+      <c r="BV6" t="n">
+        <v>36.75</v>
       </c>
       <c r="BW6" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="BX6" t="n">
         <v>94.0</v>
@@ -2387,28 +2348,28 @@
         <v>6.1</v>
       </c>
       <c r="BZ6" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="CA6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="CB6" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="CC6" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="CD6" t="n">
         <v>76.0</v>
       </c>
       <c r="CE6" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="CF6" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="CG6" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7">
@@ -2631,11 +2592,11 @@
       <c r="BU7" t="n">
         <v>223.7</v>
       </c>
-      <c r="BV7" t="s">
-        <v>241</v>
+      <c r="BV7" t="n">
+        <v>36.77</v>
       </c>
       <c r="BW7" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="BX7" t="n">
         <v>99.0</v>
@@ -2644,28 +2605,28 @@
         <v>6.0</v>
       </c>
       <c r="BZ7" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="CA7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="CB7" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="CC7" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="CD7" t="n">
         <v>76.0</v>
       </c>
       <c r="CE7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="CF7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="CG7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8">
@@ -2888,11 +2849,11 @@
       <c r="BU8" t="n">
         <v>262.2</v>
       </c>
-      <c r="BV8" t="s">
-        <v>242</v>
+      <c r="BV8" t="n">
+        <v>39.86</v>
       </c>
       <c r="BW8" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="BX8" t="n">
         <v>118.0</v>
@@ -2901,28 +2862,28 @@
         <v>6.1</v>
       </c>
       <c r="BZ8" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="CA8" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="CB8" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="CC8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="CD8" t="n">
         <v>73.0</v>
       </c>
       <c r="CE8" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="CF8" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="CG8" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9">
@@ -3145,11 +3106,11 @@
       <c r="BU9" t="n">
         <v>237.8</v>
       </c>
-      <c r="BV9" t="s">
-        <v>243</v>
+      <c r="BV9" t="n">
+        <v>35.63</v>
       </c>
       <c r="BW9" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="BX9" t="n">
         <v>95.0</v>
@@ -3158,28 +3119,28 @@
         <v>5.8</v>
       </c>
       <c r="BZ9" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="CA9" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="CB9" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="CC9" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="CD9" t="n">
         <v>68.0</v>
       </c>
       <c r="CE9" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="CF9" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="CG9" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10">
@@ -3402,11 +3363,11 @@
       <c r="BU10" t="n">
         <v>234.0</v>
       </c>
-      <c r="BV10" t="s">
-        <v>244</v>
+      <c r="BV10" t="n">
+        <v>35.06</v>
       </c>
       <c r="BW10" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="BX10" t="n">
         <v>102.0</v>
@@ -3415,28 +3376,28 @@
         <v>5.7</v>
       </c>
       <c r="BZ10" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="CA10" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="CB10" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="CC10" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="CD10" t="n">
         <v>68.0</v>
       </c>
       <c r="CE10" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="CF10" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="CG10" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11">
@@ -3659,11 +3620,11 @@
       <c r="BU11" t="n">
         <v>183.0</v>
       </c>
-      <c r="BV11" t="s">
-        <v>245</v>
+      <c r="BV11" t="n">
+        <v>31.66</v>
       </c>
       <c r="BW11" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="BX11" t="n">
         <v>93.0</v>
@@ -3672,28 +3633,28 @@
         <v>6.0</v>
       </c>
       <c r="BZ11" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="CA11" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="CB11" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="CC11" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="CD11" t="n">
         <v>68.0</v>
       </c>
       <c r="CE11" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="CF11" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="CG11" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12">
@@ -3728,19 +3689,19 @@
         <v>108</v>
       </c>
       <c r="K12" t="n">
-        <v>288.0</v>
+        <v>301.0</v>
       </c>
       <c r="L12" t="s">
         <v>119</v>
       </c>
       <c r="M12" t="n">
-        <v>23181.0</v>
+        <v>23868.0</v>
       </c>
       <c r="N12" t="n">
-        <v>93916.0</v>
+        <v>91213.0</v>
       </c>
       <c r="O12" t="n">
-        <v>2508.0</v>
+        <v>2461.0</v>
       </c>
       <c r="P12" t="n">
         <v>2.177064134E9</v>
@@ -3785,13 +3746,13 @@
         <v>21.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>82.1</v>
+        <v>82.4</v>
       </c>
       <c r="AE12" t="n">
-        <v>30355.0</v>
+        <v>30361.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>4873.0</v>
+        <v>4728.0</v>
       </c>
       <c r="AG12" t="s">
         <v>122</v>
@@ -3800,7 +3761,7 @@
         <v>#N/A</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.022083E7</v>
+        <v>2.0220912E7</v>
       </c>
       <c r="AJ12" t="s">
         <v>123</v>
@@ -3916,11 +3877,11 @@
       <c r="BU12" t="n">
         <v>197.0</v>
       </c>
-      <c r="BV12" t="s">
-        <v>246</v>
+      <c r="BV12" t="n">
+        <v>32.78</v>
       </c>
       <c r="BW12" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="BX12" t="n">
         <v>89.0</v>
@@ -3929,28 +3890,28 @@
         <v>5.9</v>
       </c>
       <c r="BZ12" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="CA12" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="CB12" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="CC12" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="CD12" t="n">
         <v>77.0</v>
       </c>
       <c r="CE12" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="CF12" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="CG12" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13">
@@ -3985,19 +3946,19 @@
         <v>108</v>
       </c>
       <c r="K13" t="n">
-        <v>297.0</v>
+        <v>300.0</v>
       </c>
       <c r="L13" t="s">
         <v>120</v>
       </c>
       <c r="M13" t="n">
-        <v>17531.0</v>
+        <v>17696.0</v>
       </c>
       <c r="N13" t="n">
-        <v>93904.0</v>
+        <v>93029.0</v>
       </c>
       <c r="O13" t="n">
-        <v>2524.0</v>
+        <v>2503.0</v>
       </c>
       <c r="P13" t="n">
         <v>1.646232433E9</v>
@@ -4042,13 +4003,13 @@
         <v>22.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>83.0</v>
+        <v>83.1</v>
       </c>
       <c r="AE13" t="n">
         <v>29995.0</v>
       </c>
       <c r="AF13" t="n">
-        <v>5013.0</v>
+        <v>4942.0</v>
       </c>
       <c r="AG13" t="s">
         <v>122</v>
@@ -4057,7 +4018,7 @@
         <v>#N/A</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.022083E7</v>
+        <v>2.0220912E7</v>
       </c>
       <c r="AJ13" t="s">
         <v>123</v>
@@ -4173,11 +4134,11 @@
       <c r="BU13" t="n">
         <v>235.4</v>
       </c>
-      <c r="BV13" t="s">
-        <v>247</v>
+      <c r="BV13" t="n">
+        <v>33.77</v>
       </c>
       <c r="BW13" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="BX13" t="n">
         <v>104.0</v>
@@ -4186,28 +4147,28 @@
         <v>6.0</v>
       </c>
       <c r="BZ13" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="CA13" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="CB13" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="CC13" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="CD13" t="n">
         <v>66.0</v>
       </c>
       <c r="CE13" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="CF13" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="CG13" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14">
@@ -4430,11 +4391,11 @@
       <c r="BU14" t="n">
         <v>271.0</v>
       </c>
-      <c r="BV14" t="s">
-        <v>248</v>
+      <c r="BV14" t="n">
+        <v>35.75</v>
       </c>
       <c r="BW14" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="BX14" t="n">
         <v>128.0</v>
@@ -4443,28 +4404,28 @@
         <v>5.7</v>
       </c>
       <c r="BZ14" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="CA14" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="CB14" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="CC14" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="CD14" t="n">
         <v>60.0</v>
       </c>
       <c r="CE14" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="CF14" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="CG14" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/RedCap_SubjectsInfo/SGLT2.sn.aggr.combine.info.xlsx
+++ b/RedCap_SubjectsInfo/SGLT2.sn.aggr.combine.info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="358">
   <si>
     <t>Sequencing_Date</t>
   </si>
@@ -176,7 +176,7 @@
     <t>Sum</t>
   </si>
   <si>
-    <t>...55</t>
+    <t>...16</t>
   </si>
   <si>
     <t>I7_Index ID</t>
@@ -314,6 +314,9 @@
     <t>76647_V11_combine_force14711</t>
   </si>
   <si>
+    <t>76647_V5_3_combine_force14101</t>
+  </si>
+  <si>
     <t>76649_V11_combine_force23571</t>
   </si>
   <si>
@@ -323,6 +326,9 @@
     <t>76656_V11_combine_force13551</t>
   </si>
   <si>
+    <t>76656_V5_2_combine_force7982</t>
+  </si>
+  <si>
     <t>76658_V11_combine_force23868</t>
   </si>
   <si>
@@ -347,6 +353,9 @@
     <t>76662_V5_2_combine_force9832</t>
   </si>
   <si>
+    <t>76664_V11_1_force8379</t>
+  </si>
+  <si>
     <t>76664_V5_2_combine_force13518</t>
   </si>
   <si>
@@ -368,12 +377,21 @@
     <t>P20220008</t>
   </si>
   <si>
+    <t>P20220012-UTSA</t>
+  </si>
+  <si>
+    <t>P20220016</t>
+  </si>
+  <si>
     <t>P20220015</t>
   </si>
   <si>
     <t>P20220014</t>
   </si>
   <si>
+    <t>P20220017</t>
+  </si>
+  <si>
     <t>76615_V5</t>
   </si>
   <si>
@@ -398,6 +416,9 @@
     <t>76647_V11</t>
   </si>
   <si>
+    <t>76647_V5</t>
+  </si>
+  <si>
     <t>76649_V11</t>
   </si>
   <si>
@@ -407,6 +428,9 @@
     <t>76656_V11</t>
   </si>
   <si>
+    <t>76656_V5</t>
+  </si>
+  <si>
     <t>76658_V11</t>
   </si>
   <si>
@@ -431,6 +455,9 @@
     <t>76662_V5</t>
   </si>
   <si>
+    <t>76664_V11</t>
+  </si>
+  <si>
     <t>76664_V5</t>
   </si>
   <si>
@@ -473,6 +500,9 @@
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76647_V11_combine_force14711/outs/molecule_info.h5</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_7/20220926_Counts/76647_V5_3_combine_force14101/outs/molecule_info.h5</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76649_V11_combine_force23571/outs/molecule_info.h5</t>
   </si>
   <si>
@@ -482,6 +512,9 @@
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76656_V11_combine_force13551/outs/molecule_info.h5</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_7/20220926_Counts/76656_V5_2_combine_force7982/outs/molecule_info.h5</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23868/outs/molecule_info.h5</t>
   </si>
   <si>
@@ -506,6 +539,9 @@
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V5_2_combine_force9832/outs/molecule_info.h5</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_7/20220926_Counts/76664_V11_1_force8379/outs/molecule_info.h5</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76664_V5_2_combine_force13518/outs/molecule_info.h5</t>
   </si>
   <si>
@@ -521,6 +557,9 @@
     <t>SequencingFiles_6</t>
   </si>
   <si>
+    <t>SequencingFiles_7</t>
+  </si>
+  <si>
     <t>20210126_UTA_NovaSeq_L3_Counts</t>
   </si>
   <si>
@@ -533,6 +572,9 @@
     <t>20220801_Counts</t>
   </si>
   <si>
+    <t>20220926_Counts</t>
+  </si>
+  <si>
     <t>/outs/</t>
   </si>
   <si>
@@ -566,6 +608,9 @@
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76647_V11_combine_force14711/outs/metrics_summary.csv</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_7/20220926_Counts/76647_V5_3_combine_force14101/outs/metrics_summary.csv</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76649_V11_combine_force23571/outs/metrics_summary.csv</t>
   </si>
   <si>
@@ -575,6 +620,9 @@
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76656_V11_combine_force13551/outs/metrics_summary.csv</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_7/20220926_Counts/76656_V5_2_combine_force7982/outs/metrics_summary.csv</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23868/outs/metrics_summary.csv</t>
   </si>
   <si>
@@ -599,6 +647,9 @@
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V5_2_combine_force9832/outs/metrics_summary.csv</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_7/20220926_Counts/76664_V11_1_force8379/outs/metrics_summary.csv</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76664_V5_2_combine_force13518/outs/metrics_summary.csv</t>
   </si>
   <si>
@@ -620,9 +671,15 @@
     <t>766-43</t>
   </si>
   <si>
+    <t>76647_V5_3rd</t>
+  </si>
+  <si>
     <t>766-49 V5</t>
   </si>
   <si>
+    <t>76656_V5_2nd</t>
+  </si>
+  <si>
     <t>76658_V5_3rd</t>
   </si>
   <si>
@@ -638,6 +695,9 @@
     <t>76662_V5_2nd</t>
   </si>
   <si>
+    <t>76664_V11_1st</t>
+  </si>
+  <si>
     <t>76664_V5_2nd</t>
   </si>
   <si>
@@ -647,6 +707,9 @@
     <t>2nd</t>
   </si>
   <si>
+    <t>1st</t>
+  </si>
+  <si>
     <t>10X31031</t>
   </si>
   <si>
@@ -683,6 +746,9 @@
     <t>SI-TT-E6</t>
   </si>
   <si>
+    <t>SI-TT-B7</t>
+  </si>
+  <si>
     <t>SI-TT-D5</t>
   </si>
   <si>
@@ -692,6 +758,9 @@
     <t>SI-TT-H2</t>
   </si>
   <si>
+    <t>SI-GA-H11</t>
+  </si>
+  <si>
     <t>SI-TT-H4</t>
   </si>
   <si>
@@ -710,6 +779,9 @@
     <t>SI-TT-H7</t>
   </si>
   <si>
+    <t>SI-TT-D11</t>
+  </si>
+  <si>
     <t>CACGGTGAAT</t>
   </si>
   <si>
@@ -731,6 +803,9 @@
     <t>TTGAGAGTCA</t>
   </si>
   <si>
+    <t>GCCTTCGGTA</t>
+  </si>
+  <si>
     <t>TGGTTCGGGT</t>
   </si>
   <si>
@@ -740,6 +815,9 @@
     <t>TAGCATAGTG</t>
   </si>
   <si>
+    <t>GGCGAGTA, ACTTCTAT, CAAATACG, TTGCGCGC</t>
+  </si>
+  <si>
     <t>AGTTTCCTGG</t>
   </si>
   <si>
@@ -758,6 +836,9 @@
     <t>ACCTCGAGCT</t>
   </si>
   <si>
+    <t>CGAATATTCG</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -782,6 +863,9 @@
     <t>CTACCAGGTT</t>
   </si>
   <si>
+    <t>AAATCGTTGG</t>
+  </si>
+  <si>
     <t>CTCCTGCCAC</t>
   </si>
   <si>
@@ -812,6 +896,33 @@
     <t>ATCGAACACA</t>
   </si>
   <si>
+    <t>TTGCTTCCAG</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
     <t>S4 150PE</t>
   </si>
   <si>
@@ -854,10 +965,19 @@
     <t>20220801_L8_fastq</t>
   </si>
   <si>
+    <t>20220926_L12_fastq_UTSA</t>
+  </si>
+  <si>
+    <t>20220926_L16_fastq</t>
+  </si>
+  <si>
     <t>20220914_L15_fastq</t>
   </si>
   <si>
     <t>20220914_L14_fastq</t>
+  </si>
+  <si>
+    <t>20220926_L17_fastq</t>
   </si>
   <si>
     <t>76615</t>
@@ -1368,19 +1488,19 @@
         <v>35.0</v>
       </c>
       <c r="AC2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AD2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AE2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="e">
         <v>#N/A</v>
@@ -1389,46 +1509,46 @@
         <v>2.0220822E7</v>
       </c>
       <c r="AJ2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AM2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="AO2" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="AP2" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ2" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AT2" t="n">
         <v>2.0200909E7</v>
       </c>
       <c r="AU2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="AV2" t="e">
         <v>#N/A</v>
       </c>
       <c r="AW2" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="AX2" t="n">
         <v>10000.0</v>
@@ -1449,16 +1569,16 @@
         <v>#N/A</v>
       </c>
       <c r="BD2" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="BE2" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="BF2" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="BG2" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="BH2" t="n">
         <v>30.3</v>
@@ -1466,20 +1586,20 @@
       <c r="BI2" t="n">
         <v>415.0</v>
       </c>
-      <c r="BJ2" t="n">
-        <v>2.5</v>
+      <c r="BJ2" t="s">
+        <v>295</v>
       </c>
       <c r="BK2" t="n">
         <v>50.0</v>
       </c>
       <c r="BL2" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM2" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN2" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="BO2" t="e">
         <v>#N/A</v>
@@ -1488,7 +1608,7 @@
         <v>#N/A</v>
       </c>
       <c r="BQ2" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="BR2" t="n">
         <v>1.0</v>
@@ -1497,13 +1617,13 @@
         <v>15.0</v>
       </c>
       <c r="BT2" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="BU2" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="BV2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW2" t="n">
         <v>59.5</v>
@@ -1515,7 +1635,7 @@
         <v>31.49</v>
       </c>
       <c r="BZ2" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA2" t="n">
         <v>96.0</v>
@@ -1524,28 +1644,28 @@
         <v>5.9</v>
       </c>
       <c r="CC2" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="CD2" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE2" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF2" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="CG2" t="n">
         <v>67.0</v>
       </c>
       <c r="CH2" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="CI2" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ2" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
@@ -1634,19 +1754,19 @@
         <v>60.0</v>
       </c>
       <c r="AC3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AD3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AE3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="e">
         <v>#N/A</v>
@@ -1655,46 +1775,46 @@
         <v>2.0220822E7</v>
       </c>
       <c r="AJ3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AM3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AO3" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AP3" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ3" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR3" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS3" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="AT3" t="n">
         <v>2.0210707E7</v>
       </c>
       <c r="AU3" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="AV3" t="e">
         <v>#N/A</v>
       </c>
       <c r="AW3" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="AX3" t="n">
         <v>6367.0</v>
@@ -1715,16 +1835,16 @@
         <v>#N/A</v>
       </c>
       <c r="BD3" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="BE3" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="BF3" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="BG3" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="BH3" t="n">
         <v>3.26</v>
@@ -1732,29 +1852,29 @@
       <c r="BI3" t="n">
         <v>494.0</v>
       </c>
-      <c r="BJ3" t="n">
-        <v>10.0</v>
+      <c r="BJ3" t="s">
+        <v>296</v>
       </c>
       <c r="BK3" t="n">
         <v>25.0</v>
       </c>
       <c r="BL3" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM3" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN3" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="BO3" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="BP3" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="BQ3" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="BR3" t="n">
         <v>2.0</v>
@@ -1763,13 +1883,13 @@
         <v>32.0</v>
       </c>
       <c r="BT3" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="BU3" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="BV3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW3" t="n">
         <v>62.0</v>
@@ -1781,7 +1901,7 @@
         <v>36.69</v>
       </c>
       <c r="BZ3" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA3" t="n">
         <v>91.0</v>
@@ -1790,28 +1910,28 @@
         <v>5.6</v>
       </c>
       <c r="CC3" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="CD3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE3" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF3" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="CG3" t="n">
         <v>63.0</v>
       </c>
       <c r="CH3" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="CI3" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ3" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4">
@@ -1900,19 +2020,19 @@
         <v>58.0</v>
       </c>
       <c r="AC4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AD4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AE4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF4" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG4" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="e">
         <v>#N/A</v>
@@ -1921,40 +2041,40 @@
         <v>2.022083E7</v>
       </c>
       <c r="AJ4" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="AM4" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AO4" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AP4" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ4" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR4" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="AT4" t="n">
         <v>2.0210408E7</v>
       </c>
       <c r="AU4" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="AV4" t="e">
         <v>#N/A</v>
@@ -1981,16 +2101,16 @@
         <v>#N/A</v>
       </c>
       <c r="BD4" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="BE4" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="BF4" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="BG4" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="BH4" t="n">
         <v>3.26</v>
@@ -1998,29 +2118,29 @@
       <c r="BI4" t="n">
         <v>494.0</v>
       </c>
-      <c r="BJ4" t="n">
-        <v>10.0</v>
+      <c r="BJ4" t="s">
+        <v>296</v>
       </c>
       <c r="BK4" t="n">
         <v>25.0</v>
       </c>
       <c r="BL4" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM4" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN4" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="BO4" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="BP4" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="BQ4" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="BR4" t="n">
         <v>3.0</v>
@@ -2029,13 +2149,13 @@
         <v>32.0</v>
       </c>
       <c r="BT4" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="BU4" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="BV4" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW4" t="n">
         <v>62.75</v>
@@ -2047,7 +2167,7 @@
         <v>34.64</v>
       </c>
       <c r="BZ4" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA4" t="n">
         <v>100.0</v>
@@ -2056,28 +2176,28 @@
         <v>5.9</v>
       </c>
       <c r="CC4" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="CD4" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE4" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF4" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="CG4" t="n">
         <v>63.0</v>
       </c>
       <c r="CH4" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="CI4" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ4" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5">
@@ -2166,19 +2286,19 @@
         <v>132.0</v>
       </c>
       <c r="AC5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AD5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AE5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF5" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="e">
         <v>#N/A</v>
@@ -2187,43 +2307,43 @@
         <v>2.0220927E7</v>
       </c>
       <c r="AJ5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK5" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL5" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AM5" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN5" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AO5" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AP5" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ5" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR5" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS5" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AT5" t="n">
         <v>2.0211001E7</v>
       </c>
       <c r="AU5" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="AV5" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AW5" t="e">
         <v>#N/A</v>
@@ -2247,16 +2367,16 @@
         <v>#N/A</v>
       </c>
       <c r="BD5" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="BE5" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="BF5" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="BG5" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="BH5" t="n">
         <v>1.13</v>
@@ -2264,20 +2384,20 @@
       <c r="BI5" t="n">
         <v>465.0</v>
       </c>
-      <c r="BJ5" t="n">
-        <v>3.7</v>
+      <c r="BJ5" t="s">
+        <v>297</v>
       </c>
       <c r="BK5" t="n">
         <v>100.0</v>
       </c>
       <c r="BL5" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM5" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN5" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="BO5" t="e">
         <v>#N/A</v>
@@ -2286,7 +2406,7 @@
         <v>#N/A</v>
       </c>
       <c r="BQ5" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="BR5" t="n">
         <v>4.0</v>
@@ -2295,13 +2415,13 @@
         <v>38.0</v>
       </c>
       <c r="BT5" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="BU5" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="BV5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW5" t="n">
         <v>69.0</v>
@@ -2313,7 +2433,7 @@
         <v>35.64</v>
       </c>
       <c r="BZ5" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA5" t="n">
         <v>104.0</v>
@@ -2322,28 +2442,28 @@
         <v>6.0</v>
       </c>
       <c r="CC5" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="CD5" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE5" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF5" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="CG5" t="n">
         <v>67.0</v>
       </c>
       <c r="CH5" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="CI5" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ5" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6">
@@ -2432,19 +2552,19 @@
         <v>66.0</v>
       </c>
       <c r="AC6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AD6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AE6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF6" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="e">
         <v>#N/A</v>
@@ -2453,46 +2573,46 @@
         <v>2.022083E7</v>
       </c>
       <c r="AJ6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL6" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AM6" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AO6" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AP6" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ6" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR6" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS6" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AT6" t="n">
         <v>2.0210623E7</v>
       </c>
       <c r="AU6" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="AV6" t="e">
         <v>#N/A</v>
       </c>
       <c r="AW6" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="AX6" t="n">
         <v>7769.0</v>
@@ -2513,16 +2633,16 @@
         <v>#N/A</v>
       </c>
       <c r="BD6" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="BE6" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="BF6" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="BG6" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="BH6" t="n">
         <v>7.11</v>
@@ -2530,29 +2650,29 @@
       <c r="BI6" t="n">
         <v>483.0</v>
       </c>
-      <c r="BJ6" t="n">
-        <v>22.0</v>
+      <c r="BJ6" t="s">
+        <v>298</v>
       </c>
       <c r="BK6" t="n">
         <v>25.0</v>
       </c>
       <c r="BL6" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM6" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN6" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="BO6" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="BP6" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="BQ6" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="BR6" t="n">
         <v>5.0</v>
@@ -2561,13 +2681,13 @@
         <v>38.0</v>
       </c>
       <c r="BT6" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="BU6" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="BV6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW6" t="n">
         <v>69.0</v>
@@ -2579,7 +2699,7 @@
         <v>36.41</v>
       </c>
       <c r="BZ6" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA6" t="n">
         <v>114.0</v>
@@ -2588,28 +2708,28 @@
         <v>5.8</v>
       </c>
       <c r="CC6" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="CD6" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE6" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF6" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="CG6" t="n">
         <v>67.0</v>
       </c>
       <c r="CH6" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="CI6" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ6" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7">
@@ -2698,19 +2818,19 @@
         <v>125.0</v>
       </c>
       <c r="AC7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AD7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AE7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH7" t="e">
         <v>#N/A</v>
@@ -2719,40 +2839,40 @@
         <v>2.0220912E7</v>
       </c>
       <c r="AJ7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="AM7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AO7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="AP7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS7" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AT7" t="n">
         <v>2.0211011E7</v>
       </c>
       <c r="AU7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AV7" t="e">
         <v>#N/A</v>
@@ -2779,16 +2899,16 @@
         <v>#N/A</v>
       </c>
       <c r="BD7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="BE7" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="BF7" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="BG7" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="BH7" t="n">
         <v>2.97</v>
@@ -2796,29 +2916,29 @@
       <c r="BI7" t="n">
         <v>450.0</v>
       </c>
-      <c r="BJ7" t="n">
-        <v>10.0</v>
+      <c r="BJ7" t="s">
+        <v>296</v>
       </c>
       <c r="BK7" t="n">
         <v>30.0</v>
       </c>
       <c r="BL7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="BO7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="BP7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="BQ7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="BR7" t="n">
         <v>6.0</v>
@@ -2827,13 +2947,13 @@
         <v>43.0</v>
       </c>
       <c r="BT7" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="BU7" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="BV7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW7" t="n">
         <v>65.2</v>
@@ -2845,7 +2965,7 @@
         <v>36.75</v>
       </c>
       <c r="BZ7" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA7" t="n">
         <v>94.0</v>
@@ -2854,28 +2974,28 @@
         <v>6.1</v>
       </c>
       <c r="CC7" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="CD7" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE7" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF7" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="CG7" t="n">
         <v>76.0</v>
       </c>
       <c r="CH7" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="CI7" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ7" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8">
@@ -2964,19 +3084,19 @@
         <v>61.0</v>
       </c>
       <c r="AC8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AD8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AE8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF8" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG8" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="e">
         <v>#N/A</v>
@@ -2985,46 +3105,46 @@
         <v>2.0211117E7</v>
       </c>
       <c r="AJ8" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK8" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="AM8" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN8" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AO8" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AP8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ8" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR8" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS8" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="AT8" t="n">
         <v>2.0210707E7</v>
       </c>
       <c r="AU8" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="AV8" t="e">
         <v>#N/A</v>
       </c>
       <c r="AW8" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="AX8" t="n">
         <v>3870.0</v>
@@ -3045,16 +3165,16 @@
         <v>#N/A</v>
       </c>
       <c r="BD8" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="BE8" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="BF8" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="BG8" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="BH8" t="n">
         <v>3.26</v>
@@ -3062,29 +3182,29 @@
       <c r="BI8" t="n">
         <v>494.0</v>
       </c>
-      <c r="BJ8" t="n">
-        <v>10.0</v>
+      <c r="BJ8" t="s">
+        <v>296</v>
       </c>
       <c r="BK8" t="n">
         <v>25.0</v>
       </c>
       <c r="BL8" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM8" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN8" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="BO8" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="BP8" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="BQ8" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="BR8" t="n">
         <v>7.0</v>
@@ -3093,13 +3213,13 @@
         <v>43.0</v>
       </c>
       <c r="BT8" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="BU8" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="BV8" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW8" t="n">
         <v>65.4</v>
@@ -3111,7 +3231,7 @@
         <v>36.77</v>
       </c>
       <c r="BZ8" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA8" t="n">
         <v>99.0</v>
@@ -3120,28 +3240,28 @@
         <v>6.0</v>
       </c>
       <c r="CC8" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="CD8" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE8" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF8" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="CG8" t="n">
         <v>76.0</v>
       </c>
       <c r="CH8" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="CI8" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ8" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9">
@@ -3230,19 +3350,19 @@
         <v>124.0</v>
       </c>
       <c r="AC9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AE9" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF9" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG9" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="e">
         <v>#N/A</v>
@@ -3251,40 +3371,40 @@
         <v>2.022083E7</v>
       </c>
       <c r="AJ9" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK9" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL9" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AM9" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN9" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AO9" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="AP9" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ9" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR9" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS9" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AT9" t="n">
         <v>2.0211111E7</v>
       </c>
       <c r="AU9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AV9" t="e">
         <v>#N/A</v>
@@ -3311,16 +3431,16 @@
         <v>#N/A</v>
       </c>
       <c r="BD9" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="BE9" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="BF9" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="BG9" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="BH9" t="n">
         <v>3.2</v>
@@ -3328,29 +3448,29 @@
       <c r="BI9" t="n">
         <v>450.0</v>
       </c>
-      <c r="BJ9" t="n">
-        <v>10.0</v>
+      <c r="BJ9" t="s">
+        <v>296</v>
       </c>
       <c r="BK9" t="n">
         <v>30.0</v>
       </c>
       <c r="BL9" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM9" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN9" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="BO9" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="BP9" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="BQ9" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="BR9" t="n">
         <v>8.0</v>
@@ -3359,13 +3479,13 @@
         <v>47.0</v>
       </c>
       <c r="BT9" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="BU9" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="BV9" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW9" t="n">
         <v>68.0</v>
@@ -3377,7 +3497,7 @@
         <v>39.86</v>
       </c>
       <c r="BZ9" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA9" t="n">
         <v>118.0</v>
@@ -3386,39 +3506,39 @@
         <v>6.1</v>
       </c>
       <c r="CC9" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="CD9" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE9" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF9" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="CG9" t="n">
         <v>73.0</v>
       </c>
       <c r="CH9" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="CI9" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ9" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.0220801E7</v>
+        <v>2.0220926E7</v>
       </c>
       <c r="B10" t="s">
         <v>91</v>
       </c>
       <c r="C10" t="n">
-        <v>3.018845805E9</v>
+        <v>2.968827294E9</v>
       </c>
       <c r="D10" t="e">
         <v>#N/A</v>
@@ -3427,264 +3547,264 @@
         <v>#N/A</v>
       </c>
       <c r="F10" t="n">
-        <v>295.0</v>
+        <v>352.0</v>
       </c>
       <c r="G10" t="s">
         <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>23571.0</v>
+        <v>14101.0</v>
       </c>
       <c r="I10" t="n">
-        <v>81085.0</v>
+        <v>115062.0</v>
       </c>
       <c r="J10" t="n">
-        <v>2361.0</v>
+        <v>3624.0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.911247544E9</v>
+        <v>1.622483015E9</v>
       </c>
       <c r="L10" t="n">
-        <v>97.8</v>
+        <v>97.1</v>
       </c>
       <c r="M10" t="n">
-        <v>80.9</v>
+        <v>58.9</v>
       </c>
       <c r="N10" t="n">
-        <v>96.3</v>
+        <v>95.4</v>
       </c>
       <c r="O10" t="n">
-        <v>93.1</v>
+        <v>91.1</v>
       </c>
       <c r="P10" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q10" t="n">
-        <v>95.6</v>
+        <v>94.8</v>
       </c>
       <c r="R10" t="n">
-        <v>95.8</v>
+        <v>85.8</v>
       </c>
       <c r="S10" t="n">
-        <v>89.5</v>
+        <v>76.4</v>
       </c>
       <c r="T10" t="n">
-        <v>7.5</v>
+        <v>8.2</v>
       </c>
       <c r="U10" t="n">
-        <v>54.8</v>
+        <v>52.0</v>
       </c>
       <c r="V10" t="n">
-        <v>27.1</v>
+        <v>16.1</v>
       </c>
       <c r="W10" t="n">
-        <v>63.7</v>
+        <v>57.0</v>
       </c>
       <c r="X10" t="n">
-        <v>16.6</v>
+        <v>9.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.8</v>
+        <v>68.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>30263.0</v>
+        <v>30099.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>4527.0</v>
+        <v>9621.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>123.0</v>
+        <v>130.0</v>
       </c>
       <c r="AC10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AD10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AE10" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF10" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH10" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.022083E7</v>
+        <v>2.0221005E7</v>
       </c>
       <c r="AJ10" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK10" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL10" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AM10" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN10" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="AO10" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="AP10" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ10" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR10" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS10" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.0211102E7</v>
+        <v>2.0210713E7</v>
       </c>
       <c r="AU10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV10" t="e">
-        <v>#N/A</v>
+        <v>219</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>229</v>
       </c>
       <c r="AW10" t="e">
         <v>#N/A</v>
       </c>
       <c r="AX10" t="n">
-        <v>16834.0</v>
+        <v>14671.0</v>
       </c>
       <c r="AY10" t="n">
-        <v>53138.0</v>
+        <v>30000.0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>8.94525092E8</v>
+        <v>4.4013E8</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.354</v>
+        <v>0.173</v>
       </c>
       <c r="BB10" t="n">
-        <v>2.525739924E9</v>
+        <v>2.545088E9</v>
       </c>
       <c r="BC10" t="e">
         <v>#N/A</v>
       </c>
       <c r="BD10" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="BE10" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="BF10" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="BG10" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="BH10" t="n">
-        <v>3.2</v>
+        <v>1.43</v>
       </c>
       <c r="BI10" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>10.0</v>
+        <v>337.0</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>299</v>
       </c>
       <c r="BK10" t="n">
-        <v>30.0</v>
+        <v>100.0</v>
       </c>
       <c r="BL10" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM10" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN10" t="s">
-        <v>268</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>270</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>272</v>
+        <v>305</v>
+      </c>
+      <c r="BO10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BQ10" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="BR10" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="BS10" t="n">
-        <v>49.0</v>
+        <v>47.0</v>
       </c>
       <c r="BT10" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="BU10" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="BV10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW10" t="n">
-        <v>68.5</v>
+        <v>68.25</v>
       </c>
       <c r="BX10" t="n">
-        <v>237.8</v>
+        <v>264.0</v>
       </c>
       <c r="BY10" t="n">
-        <v>35.63</v>
+        <v>39.84</v>
       </c>
       <c r="BZ10" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA10" t="n">
-        <v>95.0</v>
+        <v>112.0</v>
       </c>
       <c r="CB10" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="CC10" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="CD10" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE10" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF10" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="CG10" t="n">
-        <v>68.0</v>
+        <v>73.0</v>
       </c>
       <c r="CH10" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="CI10" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ10" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.0211105E7</v>
+        <v>2.0220801E7</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C11" t="n">
-        <v>2.590729371E9</v>
+        <v>3.018845805E9</v>
       </c>
       <c r="D11" t="e">
         <v>#N/A</v>
@@ -3693,264 +3813,264 @@
         <v>#N/A</v>
       </c>
       <c r="F11" t="n">
-        <v>287.0</v>
+        <v>295.0</v>
       </c>
       <c r="G11" t="s">
         <v>101</v>
       </c>
       <c r="H11" t="n">
-        <v>14435.0</v>
+        <v>23571.0</v>
       </c>
       <c r="I11" t="n">
-        <v>101141.0</v>
+        <v>81085.0</v>
       </c>
       <c r="J11" t="n">
-        <v>2781.0</v>
+        <v>2361.0</v>
       </c>
       <c r="K11" t="n">
-        <v>1.459966283E9</v>
+        <v>1.911247544E9</v>
       </c>
       <c r="L11" t="n">
-        <v>96.7</v>
+        <v>97.8</v>
       </c>
       <c r="M11" t="n">
-        <v>74.2</v>
+        <v>80.9</v>
       </c>
       <c r="N11" t="n">
-        <v>95.1</v>
+        <v>96.3</v>
       </c>
       <c r="O11" t="n">
-        <v>92.9</v>
+        <v>93.1</v>
       </c>
       <c r="P11" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q11" t="n">
-        <v>94.3</v>
+        <v>95.6</v>
       </c>
       <c r="R11" t="n">
         <v>95.8</v>
       </c>
       <c r="S11" t="n">
-        <v>90.5</v>
+        <v>89.5</v>
       </c>
       <c r="T11" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U11" t="n">
-        <v>60.8</v>
+        <v>54.8</v>
       </c>
       <c r="V11" t="n">
-        <v>22.3</v>
+        <v>27.1</v>
       </c>
       <c r="W11" t="n">
-        <v>53.7</v>
+        <v>63.7</v>
       </c>
       <c r="X11" t="n">
-        <v>27.9</v>
+        <v>16.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.4</v>
+        <v>85.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>30088.0</v>
+        <v>30263.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>6185.0</v>
+        <v>4527.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>64.0</v>
+        <v>123.0</v>
       </c>
       <c r="AC11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AD11" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AE11" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF11" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH11" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.0220822E7</v>
+        <v>2.022083E7</v>
       </c>
       <c r="AJ11" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK11" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AM11" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN11" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="AO11" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="AP11" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ11" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR11" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS11" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.0210723E7</v>
+        <v>2.0211102E7</v>
       </c>
       <c r="AU11" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="AV11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AW11" t="s">
-        <v>215</v>
+      <c r="AW11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AX11" t="n">
-        <v>14332.0</v>
+        <v>16834.0</v>
       </c>
       <c r="AY11" t="n">
-        <v>65351.0</v>
+        <v>53138.0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4.357E8</v>
+        <v>8.94525092E8</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.304685462885159</v>
+        <v>0.354</v>
       </c>
       <c r="BB11" t="n">
-        <v>3.07402435E9</v>
+        <v>2.525739924E9</v>
       </c>
       <c r="BC11" t="e">
         <v>#N/A</v>
       </c>
       <c r="BD11" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="BE11" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="BF11" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="BG11" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="BH11" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="BI11" t="n">
-        <v>494.0</v>
-      </c>
-      <c r="BJ11" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>296</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>303</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>304</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>305</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>307</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>309</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>316</v>
+      </c>
+      <c r="BR11" t="n">
         <v>10.0</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>266</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>267</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>268</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>269</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>271</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>274</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>11.0</v>
       </c>
       <c r="BS11" t="n">
         <v>49.0</v>
       </c>
       <c r="BT11" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="BU11" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="BV11" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW11" t="n">
         <v>68.5</v>
       </c>
       <c r="BX11" t="n">
-        <v>234.0</v>
+        <v>237.8</v>
       </c>
       <c r="BY11" t="n">
-        <v>35.06</v>
+        <v>35.63</v>
       </c>
       <c r="BZ11" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA11" t="n">
-        <v>102.0</v>
+        <v>95.0</v>
       </c>
       <c r="CB11" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="CC11" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="CD11" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE11" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF11" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="CG11" t="n">
         <v>68.0</v>
       </c>
       <c r="CH11" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="CI11" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ11" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.0220801E7</v>
+        <v>2.0211105E7</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" t="n">
-        <v>3.029374456E9</v>
+        <v>2.590729371E9</v>
       </c>
       <c r="D12" t="e">
         <v>#N/A</v>
@@ -3959,253 +4079,253 @@
         <v>#N/A</v>
       </c>
       <c r="F12" t="n">
-        <v>296.0</v>
+        <v>287.0</v>
       </c>
       <c r="G12" t="s">
         <v>102</v>
       </c>
       <c r="H12" t="n">
-        <v>13551.0</v>
+        <v>14435.0</v>
       </c>
       <c r="I12" t="n">
-        <v>109470.0</v>
+        <v>101141.0</v>
       </c>
       <c r="J12" t="n">
-        <v>2927.0</v>
+        <v>2781.0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.48342968E9</v>
+        <v>1.459966283E9</v>
       </c>
       <c r="L12" t="n">
-        <v>97.5</v>
+        <v>96.7</v>
       </c>
       <c r="M12" t="n">
-        <v>74.5</v>
+        <v>74.2</v>
       </c>
       <c r="N12" t="n">
-        <v>96.2</v>
+        <v>95.1</v>
       </c>
       <c r="O12" t="n">
-        <v>93.6</v>
+        <v>92.9</v>
       </c>
       <c r="P12" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.6</v>
+        <v>94.3</v>
       </c>
       <c r="R12" t="n">
-        <v>96.2</v>
+        <v>95.8</v>
       </c>
       <c r="S12" t="n">
-        <v>90.8</v>
+        <v>90.5</v>
       </c>
       <c r="T12" t="n">
-        <v>9.0</v>
+        <v>7.4</v>
       </c>
       <c r="U12" t="n">
-        <v>60.9</v>
+        <v>60.8</v>
       </c>
       <c r="V12" t="n">
-        <v>20.9</v>
+        <v>22.3</v>
       </c>
       <c r="W12" t="n">
-        <v>55.6</v>
+        <v>53.7</v>
       </c>
       <c r="X12" t="n">
-        <v>24.8</v>
+        <v>27.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.4</v>
+        <v>82.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>30143.0</v>
+        <v>30088.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>6361.0</v>
+        <v>6185.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>128.0</v>
+        <v>64.0</v>
       </c>
       <c r="AC12" t="s">
         <v>116</v>
       </c>
       <c r="AD12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AE12" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH12" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.022083E7</v>
+        <v>2.0220822E7</v>
       </c>
       <c r="AJ12" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK12" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="AM12" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN12" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="AO12" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="AP12" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ12" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR12" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS12" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.0211209E7</v>
+        <v>2.0210723E7</v>
       </c>
       <c r="AU12" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="AV12" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AW12" t="e">
-        <v>#N/A</v>
+      <c r="AW12" t="s">
+        <v>236</v>
       </c>
       <c r="AX12" t="n">
-        <v>13505.0</v>
+        <v>14332.0</v>
       </c>
       <c r="AY12" t="n">
-        <v>42605.0</v>
+        <v>65351.0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>5.75380525E8</v>
+        <v>4.357E8</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.234</v>
+        <v>0.304685462885159</v>
       </c>
       <c r="BB12" t="n">
-        <v>2.454088919E9</v>
+        <v>3.07402435E9</v>
       </c>
       <c r="BC12" t="e">
         <v>#N/A</v>
       </c>
       <c r="BD12" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="BE12" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="BF12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="BG12" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="BH12" t="n">
-        <v>2.97</v>
+        <v>3.26</v>
       </c>
       <c r="BI12" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>10.0</v>
+        <v>494.0</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>296</v>
       </c>
       <c r="BK12" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="BL12" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM12" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN12" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="BO12" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="BP12" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="BQ12" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="BR12" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="BS12" t="n">
-        <v>56.0</v>
+        <v>49.0</v>
       </c>
       <c r="BT12" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="BU12" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="BV12" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW12" t="n">
-        <v>63.75</v>
+        <v>68.5</v>
       </c>
       <c r="BX12" t="n">
-        <v>183.0</v>
+        <v>234.0</v>
       </c>
       <c r="BY12" t="n">
-        <v>31.66</v>
+        <v>35.06</v>
       </c>
       <c r="BZ12" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA12" t="n">
-        <v>93.0</v>
+        <v>102.0</v>
       </c>
       <c r="CB12" t="n">
-        <v>6.0</v>
+        <v>5.7</v>
       </c>
       <c r="CC12" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="CD12" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE12" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF12" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="CG12" t="n">
         <v>68.0</v>
       </c>
       <c r="CH12" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="CI12" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ12" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13">
@@ -4213,10 +4333,10 @@
         <v>2.0220801E7</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" t="n">
-        <v>3.018845805E9</v>
+        <v>3.029374456E9</v>
       </c>
       <c r="D13" t="e">
         <v>#N/A</v>
@@ -4225,34 +4345,34 @@
         <v>#N/A</v>
       </c>
       <c r="F13" t="n">
-        <v>301.0</v>
+        <v>296.0</v>
       </c>
       <c r="G13" t="s">
         <v>103</v>
       </c>
       <c r="H13" t="n">
-        <v>23868.0</v>
+        <v>13551.0</v>
       </c>
       <c r="I13" t="n">
-        <v>91213.0</v>
+        <v>109470.0</v>
       </c>
       <c r="J13" t="n">
-        <v>2461.0</v>
+        <v>2927.0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.177064134E9</v>
+        <v>1.48342968E9</v>
       </c>
       <c r="L13" t="n">
-        <v>97.9</v>
+        <v>97.5</v>
       </c>
       <c r="M13" t="n">
-        <v>76.5</v>
+        <v>74.5</v>
       </c>
       <c r="N13" t="n">
         <v>96.2</v>
       </c>
       <c r="O13" t="n">
-        <v>94.5</v>
+        <v>93.6</v>
       </c>
       <c r="P13" t="e">
         <v>#N/A</v>
@@ -4261,94 +4381,94 @@
         <v>95.6</v>
       </c>
       <c r="R13" t="n">
-        <v>96.8</v>
+        <v>96.2</v>
       </c>
       <c r="S13" t="n">
-        <v>92.0</v>
+        <v>90.8</v>
       </c>
       <c r="T13" t="n">
-        <v>8.5</v>
+        <v>9.0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.6</v>
+        <v>60.9</v>
       </c>
       <c r="V13" t="n">
-        <v>25.9</v>
+        <v>20.9</v>
       </c>
       <c r="W13" t="n">
-        <v>60.3</v>
+        <v>55.6</v>
       </c>
       <c r="X13" t="n">
-        <v>21.6</v>
+        <v>24.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>82.4</v>
+        <v>73.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>30361.0</v>
+        <v>30143.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>4728.0</v>
+        <v>6361.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>122.0</v>
+        <v>128.0</v>
       </c>
       <c r="AC13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AD13" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AE13" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG13" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.0220912E7</v>
+        <v>2.022083E7</v>
       </c>
       <c r="AJ13" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK13" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL13" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN13" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AO13" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="AP13" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ13" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR13" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS13" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.0211213E7</v>
+        <v>2.0211209E7</v>
       </c>
       <c r="AU13" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AV13" t="e">
         <v>#N/A</v>
@@ -4357,132 +4477,132 @@
         <v>#N/A</v>
       </c>
       <c r="AX13" t="n">
-        <v>19146.0</v>
+        <v>13505.0</v>
       </c>
       <c r="AY13" t="n">
-        <v>59480.0</v>
+        <v>42605.0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>1.13880408E9</v>
+        <v>5.75380525E8</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.451</v>
+        <v>0.234</v>
       </c>
       <c r="BB13" t="n">
-        <v>2.525739924E9</v>
+        <v>2.454088919E9</v>
       </c>
       <c r="BC13" t="e">
         <v>#N/A</v>
       </c>
       <c r="BD13" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="BE13" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="BF13" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="BG13" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="BH13" t="n">
-        <v>3.2</v>
+        <v>2.97</v>
       </c>
       <c r="BI13" t="n">
         <v>450.0</v>
       </c>
-      <c r="BJ13" t="n">
-        <v>10.0</v>
+      <c r="BJ13" t="s">
+        <v>296</v>
       </c>
       <c r="BK13" t="n">
         <v>30.0</v>
       </c>
       <c r="BL13" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM13" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN13" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="BO13" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="BP13" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="BQ13" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="BR13" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="BS13" t="n">
-        <v>58.0</v>
+        <v>56.0</v>
       </c>
       <c r="BT13" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="BU13" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="BV13" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW13" t="n">
-        <v>65.0</v>
+        <v>63.75</v>
       </c>
       <c r="BX13" t="n">
-        <v>197.0</v>
+        <v>183.0</v>
       </c>
       <c r="BY13" t="n">
-        <v>32.78</v>
+        <v>31.66</v>
       </c>
       <c r="BZ13" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA13" t="n">
-        <v>89.0</v>
+        <v>93.0</v>
       </c>
       <c r="CB13" t="n">
-        <v>5.9</v>
+        <v>6.0</v>
       </c>
       <c r="CC13" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="CD13" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE13" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF13" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="CG13" t="n">
-        <v>77.0</v>
+        <v>68.0</v>
       </c>
       <c r="CH13" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="CI13" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ13" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.0220914E7</v>
+        <v>2.0220926E7</v>
       </c>
       <c r="B14" t="s">
         <v>89</v>
       </c>
       <c r="C14" t="n">
-        <v>3.016963964E9</v>
+        <v>2.809662932E9</v>
       </c>
       <c r="D14" t="e">
         <v>#N/A</v>
@@ -4491,31 +4611,31 @@
         <v>#N/A</v>
       </c>
       <c r="F14" t="n">
-        <v>339.0</v>
+        <v>359.0</v>
       </c>
       <c r="G14" t="s">
         <v>104</v>
       </c>
       <c r="H14" t="n">
-        <v>22986.0</v>
+        <v>7982.0</v>
       </c>
       <c r="I14" t="n">
-        <v>93286.0</v>
+        <v>145458.0</v>
       </c>
       <c r="J14" t="n">
-        <v>2535.0</v>
+        <v>2168.0</v>
       </c>
       <c r="K14" t="n">
-        <v>2.144274722E9</v>
+        <v>1.161048342E9</v>
       </c>
       <c r="L14" t="n">
-        <v>97.5</v>
+        <v>97.8</v>
       </c>
       <c r="M14" t="n">
-        <v>76.7</v>
+        <v>80.9</v>
       </c>
       <c r="N14" t="n">
-        <v>96.3</v>
+        <v>95.8</v>
       </c>
       <c r="O14" t="n">
         <v>93.9</v>
@@ -4524,154 +4644,154 @@
         <v>#N/A</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.6</v>
+        <v>95.3</v>
       </c>
       <c r="R14" t="n">
-        <v>95.7</v>
+        <v>96.5</v>
       </c>
       <c r="S14" t="n">
-        <v>90.9</v>
+        <v>87.4</v>
       </c>
       <c r="T14" t="n">
-        <v>9.0</v>
+        <v>8.1</v>
       </c>
       <c r="U14" t="n">
-        <v>52.4</v>
+        <v>56.6</v>
       </c>
       <c r="V14" t="n">
-        <v>29.4</v>
+        <v>22.7</v>
       </c>
       <c r="W14" t="n">
-        <v>56.8</v>
+        <v>65.5</v>
       </c>
       <c r="X14" t="n">
-        <v>23.6</v>
+        <v>12.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>84.8</v>
+        <v>47.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>30296.0</v>
+        <v>28208.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>5228.0</v>
+        <v>4027.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>133.0</v>
+        <v>142.0</v>
       </c>
       <c r="AC14" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AD14" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AE14" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF14" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG14" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH14" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI14" t="n">
-        <v>2.0220923E7</v>
+        <v>2.0221011E7</v>
       </c>
       <c r="AJ14" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK14" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL14" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="AM14" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN14" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="AO14" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="AP14" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ14" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR14" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS14" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.0210924E7</v>
+        <v>2.0210826E7</v>
       </c>
       <c r="AU14" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AV14" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="AW14" t="e">
         <v>#N/A</v>
       </c>
       <c r="AX14" t="n">
-        <v>19432.0</v>
+        <v>7892.0</v>
       </c>
       <c r="AY14" t="n">
-        <v>42000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>8.16144E8</v>
+        <v>4.7352E8</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.34</v>
+        <v>0.166</v>
       </c>
       <c r="BB14" t="n">
-        <v>2.397579E9</v>
+        <v>2.85944E9</v>
       </c>
       <c r="BC14" t="e">
         <v>#N/A</v>
       </c>
       <c r="BD14" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="BE14" t="s">
-        <v>232</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>249</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>260</v>
+        <v>267</v>
+      </c>
+      <c r="BF14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BH14" t="n">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="BI14" t="n">
-        <v>465.0</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>3.7</v>
+        <v>550.0</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>300</v>
       </c>
       <c r="BK14" t="n">
         <v>100.0</v>
       </c>
       <c r="BL14" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM14" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN14" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="BO14" t="e">
         <v>#N/A</v>
@@ -4680,75 +4800,75 @@
         <v>#N/A</v>
       </c>
       <c r="BQ14" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="BR14" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="BS14" t="n">
-        <v>58.0</v>
+        <v>56.0</v>
       </c>
       <c r="BT14" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="BU14" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="BV14" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW14" t="n">
-        <v>66.5</v>
+        <v>63.75</v>
       </c>
       <c r="BX14" t="n">
-        <v>196.2</v>
+        <v>181.8</v>
       </c>
       <c r="BY14" t="n">
-        <v>31.19</v>
+        <v>31.45</v>
       </c>
       <c r="BZ14" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA14" t="n">
-        <v>112.0</v>
+        <v>96.0</v>
       </c>
       <c r="CB14" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="CC14" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="CD14" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE14" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF14" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="CG14" t="n">
-        <v>77.0</v>
+        <v>68.0</v>
       </c>
       <c r="CH14" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="CI14" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ14" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.0220914E7</v>
+        <v>2.0220801E7</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" t="n">
-        <v>2.998436717E9</v>
+        <v>3.018845805E9</v>
       </c>
       <c r="D15" t="e">
         <v>#N/A</v>
@@ -4757,264 +4877,264 @@
         <v>#N/A</v>
       </c>
       <c r="F15" t="n">
-        <v>348.0</v>
+        <v>301.0</v>
       </c>
       <c r="G15" t="s">
         <v>105</v>
       </c>
       <c r="H15" t="n">
-        <v>12699.0</v>
+        <v>23868.0</v>
       </c>
       <c r="I15" t="n">
-        <v>99954.0</v>
+        <v>91213.0</v>
       </c>
       <c r="J15" t="n">
-        <v>2653.0</v>
+        <v>2461.0</v>
       </c>
       <c r="K15" t="n">
-        <v>1.269309566E9</v>
+        <v>2.177064134E9</v>
       </c>
       <c r="L15" t="n">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="M15" t="n">
-        <v>80.3</v>
+        <v>76.5</v>
       </c>
       <c r="N15" t="n">
         <v>96.2</v>
       </c>
       <c r="O15" t="n">
-        <v>93.5</v>
+        <v>94.5</v>
       </c>
       <c r="P15" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.8</v>
+        <v>95.6</v>
       </c>
       <c r="R15" t="n">
-        <v>96.1</v>
+        <v>96.8</v>
       </c>
       <c r="S15" t="n">
-        <v>90.2</v>
+        <v>92.0</v>
       </c>
       <c r="T15" t="n">
         <v>8.5</v>
       </c>
       <c r="U15" t="n">
-        <v>61.6</v>
+        <v>57.6</v>
       </c>
       <c r="V15" t="n">
-        <v>20.1</v>
+        <v>25.9</v>
       </c>
       <c r="W15" t="n">
-        <v>58.8</v>
+        <v>60.3</v>
       </c>
       <c r="X15" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>75.1</v>
+        <v>82.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>29749.0</v>
+        <v>30361.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>5698.0</v>
+        <v>4728.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>139.0</v>
+        <v>122.0</v>
       </c>
       <c r="AC15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AD15" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AE15" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF15" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH15" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.0220927E7</v>
+        <v>2.0220912E7</v>
       </c>
       <c r="AJ15" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK15" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL15" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AM15" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN15" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AO15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="AP15" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ15" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR15" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS15" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.0220503E7</v>
+        <v>2.0211213E7</v>
       </c>
       <c r="AU15" t="s">
-        <v>204</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>210</v>
+        <v>139</v>
+      </c>
+      <c r="AV15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AW15" t="e">
         <v>#N/A</v>
       </c>
       <c r="AX15" t="n">
-        <v>12905.0</v>
+        <v>19146.0</v>
       </c>
       <c r="AY15" t="n">
-        <v>61000.0</v>
+        <v>59480.0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>7.87205E8</v>
+        <v>1.13880408E9</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.282</v>
+        <v>0.451</v>
       </c>
       <c r="BB15" t="n">
-        <v>2.790013E9</v>
+        <v>2.525739924E9</v>
       </c>
       <c r="BC15" t="e">
         <v>#N/A</v>
       </c>
       <c r="BD15" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="BE15" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="BF15" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="BG15" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="BH15" t="n">
-        <v>1.14</v>
+        <v>3.2</v>
       </c>
       <c r="BI15" t="n">
-        <v>483.0</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>3.6</v>
+        <v>450.0</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>296</v>
       </c>
       <c r="BK15" t="n">
-        <v>150.0</v>
+        <v>30.0</v>
       </c>
       <c r="BL15" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM15" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN15" t="s">
-        <v>268</v>
-      </c>
-      <c r="BO15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BP15" t="e">
-        <v>#N/A</v>
+        <v>305</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>307</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>309</v>
       </c>
       <c r="BQ15" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="BR15" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="BS15" t="n">
-        <v>60.0</v>
+        <v>58.0</v>
       </c>
       <c r="BT15" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="BU15" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="BV15" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW15" t="n">
-        <v>69.5</v>
+        <v>65.0</v>
       </c>
       <c r="BX15" t="n">
-        <v>226.0</v>
+        <v>197.0</v>
       </c>
       <c r="BY15" t="n">
-        <v>32.89</v>
+        <v>32.78</v>
       </c>
       <c r="BZ15" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA15" t="n">
-        <v>90.0</v>
+        <v>89.0</v>
       </c>
       <c r="CB15" t="n">
         <v>5.9</v>
       </c>
       <c r="CC15" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="CD15" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE15" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF15" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="CG15" t="n">
-        <v>66.0</v>
+        <v>77.0</v>
       </c>
       <c r="CH15" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="CI15" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ15" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.0220801E7</v>
+        <v>2.0220914E7</v>
       </c>
       <c r="B16" t="s">
         <v>89</v>
       </c>
       <c r="C16" t="n">
-        <v>3.029374456E9</v>
+        <v>3.016963964E9</v>
       </c>
       <c r="D16" t="e">
         <v>#N/A</v>
@@ -5023,253 +5143,253 @@
         <v>#N/A</v>
       </c>
       <c r="F16" t="n">
-        <v>300.0</v>
+        <v>339.0</v>
       </c>
       <c r="G16" t="s">
         <v>106</v>
       </c>
       <c r="H16" t="n">
-        <v>17696.0</v>
+        <v>22986.0</v>
       </c>
       <c r="I16" t="n">
-        <v>93029.0</v>
+        <v>93286.0</v>
       </c>
       <c r="J16" t="n">
-        <v>2503.0</v>
+        <v>2535.0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.646232433E9</v>
+        <v>2.144274722E9</v>
       </c>
       <c r="L16" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="M16" t="n">
-        <v>78.9</v>
+        <v>76.7</v>
       </c>
       <c r="N16" t="n">
         <v>96.3</v>
       </c>
       <c r="O16" t="n">
-        <v>94.3</v>
+        <v>93.9</v>
       </c>
       <c r="P16" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.8</v>
+        <v>95.6</v>
       </c>
       <c r="R16" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="S16" t="n">
-        <v>89.8</v>
+        <v>90.9</v>
       </c>
       <c r="T16" t="n">
-        <v>8.4</v>
+        <v>9.0</v>
       </c>
       <c r="U16" t="n">
-        <v>58.9</v>
+        <v>52.4</v>
       </c>
       <c r="V16" t="n">
-        <v>22.6</v>
+        <v>29.4</v>
       </c>
       <c r="W16" t="n">
-        <v>57.6</v>
+        <v>56.8</v>
       </c>
       <c r="X16" t="n">
-        <v>22.3</v>
+        <v>23.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.1</v>
+        <v>84.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>29995.0</v>
+        <v>30296.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>4942.0</v>
+        <v>5228.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>126.0</v>
+        <v>133.0</v>
       </c>
       <c r="AC16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD16" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AE16" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG16" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH16" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI16" t="n">
-        <v>2.0220912E7</v>
+        <v>2.0220923E7</v>
       </c>
       <c r="AJ16" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK16" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL16" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="AM16" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN16" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AO16" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AP16" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ16" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR16" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS16" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.022012E7</v>
+        <v>2.0210924E7</v>
       </c>
       <c r="AU16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AV16" t="e">
-        <v>#N/A</v>
+        <v>222</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>229</v>
       </c>
       <c r="AW16" t="e">
         <v>#N/A</v>
       </c>
       <c r="AX16" t="n">
-        <v>14606.0</v>
+        <v>19432.0</v>
       </c>
       <c r="AY16" t="n">
-        <v>38939.0</v>
+        <v>42000.0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>5.68743034E8</v>
+        <v>8.16144E8</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.232</v>
+        <v>0.34</v>
       </c>
       <c r="BB16" t="n">
-        <v>2.454088919E9</v>
+        <v>2.397579E9</v>
       </c>
       <c r="BC16" t="e">
         <v>#N/A</v>
       </c>
       <c r="BD16" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="BE16" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="BF16" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="BG16" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="BH16" t="n">
-        <v>2.97</v>
+        <v>1.13</v>
       </c>
       <c r="BI16" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>10.0</v>
+        <v>465.0</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>297</v>
       </c>
       <c r="BK16" t="n">
-        <v>30.0</v>
+        <v>100.0</v>
       </c>
       <c r="BL16" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM16" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN16" t="s">
-        <v>268</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>270</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>272</v>
+        <v>305</v>
+      </c>
+      <c r="BO16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BQ16" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="BR16" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="BS16" t="n">
-        <v>60.0</v>
+        <v>58.0</v>
       </c>
       <c r="BT16" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="BU16" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="BV16" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW16" t="n">
-        <v>70.0</v>
+        <v>66.5</v>
       </c>
       <c r="BX16" t="n">
-        <v>235.4</v>
+        <v>196.2</v>
       </c>
       <c r="BY16" t="n">
-        <v>33.77</v>
+        <v>31.19</v>
       </c>
       <c r="BZ16" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA16" t="n">
-        <v>104.0</v>
+        <v>112.0</v>
       </c>
       <c r="CB16" t="n">
-        <v>6.0</v>
+        <v>5.9</v>
       </c>
       <c r="CC16" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="CD16" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE16" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF16" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="CG16" t="n">
-        <v>66.0</v>
+        <v>77.0</v>
       </c>
       <c r="CH16" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="CI16" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ16" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17">
@@ -5289,88 +5409,88 @@
         <v>#N/A</v>
       </c>
       <c r="F17" t="n">
-        <v>350.0</v>
+        <v>348.0</v>
       </c>
       <c r="G17" t="s">
         <v>107</v>
       </c>
       <c r="H17" t="n">
-        <v>23379.0</v>
+        <v>12699.0</v>
       </c>
       <c r="I17" t="n">
-        <v>103889.0</v>
+        <v>99954.0</v>
       </c>
       <c r="J17" t="n">
-        <v>3028.0</v>
+        <v>2653.0</v>
       </c>
       <c r="K17" t="n">
-        <v>2.428824781E9</v>
+        <v>1.269309566E9</v>
       </c>
       <c r="L17" t="n">
         <v>97.8</v>
       </c>
       <c r="M17" t="n">
-        <v>78.2</v>
+        <v>80.3</v>
       </c>
       <c r="N17" t="n">
         <v>96.2</v>
       </c>
       <c r="O17" t="n">
-        <v>92.5</v>
+        <v>93.5</v>
       </c>
       <c r="P17" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="R17" t="n">
-        <v>95.3</v>
+        <v>96.1</v>
       </c>
       <c r="S17" t="n">
-        <v>88.1</v>
+        <v>90.2</v>
       </c>
       <c r="T17" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="U17" t="n">
-        <v>60.4</v>
+        <v>61.6</v>
       </c>
       <c r="V17" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="W17" t="n">
-        <v>62.9</v>
+        <v>58.8</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>21.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.4</v>
+        <v>75.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>30190.0</v>
+        <v>29749.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>6005.0</v>
+        <v>5698.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>140.0</v>
+        <v>139.0</v>
       </c>
       <c r="AC17" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AD17" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AE17" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF17" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG17" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH17" t="e">
         <v>#N/A</v>
@@ -5379,58 +5499,58 @@
         <v>2.0220927E7</v>
       </c>
       <c r="AJ17" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK17" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL17" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AM17" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN17" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AO17" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AP17" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ17" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR17" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS17" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.0220517E7</v>
+        <v>2.0220503E7</v>
       </c>
       <c r="AU17" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="AV17" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AW17" t="e">
         <v>#N/A</v>
       </c>
       <c r="AX17" t="n">
-        <v>18148.0</v>
+        <v>12905.0</v>
       </c>
       <c r="AY17" t="n">
-        <v>93000.0</v>
+        <v>61000.0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>1.687764E9</v>
+        <v>7.87205E8</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.605</v>
+        <v>0.282</v>
       </c>
       <c r="BB17" t="n">
         <v>2.790013E9</v>
@@ -5439,16 +5559,16 @@
         <v>#N/A</v>
       </c>
       <c r="BD17" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="BE17" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="BF17" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="BG17" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="BH17" t="n">
         <v>1.14</v>
@@ -5456,20 +5576,20 @@
       <c r="BI17" t="n">
         <v>483.0</v>
       </c>
-      <c r="BJ17" t="n">
-        <v>3.6</v>
+      <c r="BJ17" t="s">
+        <v>301</v>
       </c>
       <c r="BK17" t="n">
         <v>150.0</v>
       </c>
       <c r="BL17" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM17" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN17" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="BO17" t="e">
         <v>#N/A</v>
@@ -5478,64 +5598,64 @@
         <v>#N/A</v>
       </c>
       <c r="BQ17" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="BR17" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="BS17" t="n">
-        <v>61.0</v>
+        <v>60.0</v>
       </c>
       <c r="BT17" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="BU17" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="BV17" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW17" t="n">
-        <v>75.0</v>
+        <v>69.5</v>
       </c>
       <c r="BX17" t="n">
-        <v>268.4</v>
+        <v>226.0</v>
       </c>
       <c r="BY17" t="n">
-        <v>33.54</v>
+        <v>32.89</v>
       </c>
       <c r="BZ17" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA17" t="n">
-        <v>116.0</v>
+        <v>90.0</v>
       </c>
       <c r="CB17" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="CC17" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="CD17" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE17" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF17" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="CG17" t="n">
-        <v>60.0</v>
+        <v>66.0</v>
       </c>
       <c r="CH17" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="CI17" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ17" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18">
@@ -5555,131 +5675,131 @@
         <v>#N/A</v>
       </c>
       <c r="F18" t="n">
-        <v>298.0</v>
+        <v>300.0</v>
       </c>
       <c r="G18" t="s">
         <v>108</v>
       </c>
       <c r="H18" t="n">
-        <v>14743.0</v>
+        <v>17696.0</v>
       </c>
       <c r="I18" t="n">
-        <v>83952.0</v>
+        <v>93029.0</v>
       </c>
       <c r="J18" t="n">
-        <v>2126.0</v>
+        <v>2503.0</v>
       </c>
       <c r="K18" t="n">
-        <v>1.237706224E9</v>
+        <v>1.646232433E9</v>
       </c>
       <c r="L18" t="n">
-        <v>98.0</v>
+        <v>97.8</v>
       </c>
       <c r="M18" t="n">
-        <v>82.3</v>
+        <v>78.9</v>
       </c>
       <c r="N18" t="n">
-        <v>96.5</v>
+        <v>96.3</v>
       </c>
       <c r="O18" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="P18" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q18" t="n">
-        <v>96.0</v>
+        <v>95.8</v>
       </c>
       <c r="R18" t="n">
-        <v>96.6</v>
+        <v>95.8</v>
       </c>
       <c r="S18" t="n">
-        <v>90.4</v>
+        <v>89.8</v>
       </c>
       <c r="T18" t="n">
-        <v>8.0</v>
+        <v>8.4</v>
       </c>
       <c r="U18" t="n">
-        <v>59.0</v>
+        <v>58.9</v>
       </c>
       <c r="V18" t="n">
-        <v>23.4</v>
+        <v>22.6</v>
       </c>
       <c r="W18" t="n">
-        <v>64.0</v>
+        <v>57.6</v>
       </c>
       <c r="X18" t="n">
-        <v>16.7</v>
+        <v>22.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>85.3</v>
+        <v>83.1</v>
       </c>
       <c r="Z18" t="n">
-        <v>29313.0</v>
+        <v>29995.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>4230.0</v>
+        <v>4942.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="AC18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AD18" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AE18" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF18" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG18" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2.0220912E7</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.022012E7</v>
+      </c>
+      <c r="AU18" t="s">
         <v>142</v>
       </c>
-      <c r="AH18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>2.022083E7</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>168</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>173</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>174</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>192</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.0220211E7</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>136</v>
-      </c>
       <c r="AV18" t="e">
         <v>#N/A</v>
       </c>
@@ -5687,16 +5807,16 @@
         <v>#N/A</v>
       </c>
       <c r="AX18" t="n">
-        <v>11091.0</v>
+        <v>14606.0</v>
       </c>
       <c r="AY18" t="n">
-        <v>26561.0</v>
+        <v>38939.0</v>
       </c>
       <c r="AZ18" t="n">
-        <v>2.94588051E8</v>
+        <v>5.68743034E8</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.12</v>
+        <v>0.232</v>
       </c>
       <c r="BB18" t="n">
         <v>2.454088919E9</v>
@@ -5705,16 +5825,16 @@
         <v>#N/A</v>
       </c>
       <c r="BD18" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="BE18" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="BF18" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="BG18" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="BH18" t="n">
         <v>2.97</v>
@@ -5722,86 +5842,86 @@
       <c r="BI18" t="n">
         <v>450.0</v>
       </c>
-      <c r="BJ18" t="n">
-        <v>10.0</v>
+      <c r="BJ18" t="s">
+        <v>296</v>
       </c>
       <c r="BK18" t="n">
         <v>30.0</v>
       </c>
       <c r="BL18" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM18" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN18" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="BO18" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="BP18" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="BQ18" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="BR18" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="BS18" t="n">
-        <v>61.0</v>
+        <v>60.0</v>
       </c>
       <c r="BT18" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="BU18" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="BV18" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW18" t="n">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
       <c r="BX18" t="n">
-        <v>271.0</v>
+        <v>235.4</v>
       </c>
       <c r="BY18" t="n">
-        <v>35.75</v>
+        <v>33.77</v>
       </c>
       <c r="BZ18" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA18" t="n">
-        <v>128.0</v>
+        <v>104.0</v>
       </c>
       <c r="CB18" t="n">
-        <v>5.7</v>
+        <v>6.0</v>
       </c>
       <c r="CC18" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="CD18" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE18" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF18" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="CG18" t="n">
-        <v>60.0</v>
+        <v>66.0</v>
       </c>
       <c r="CH18" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="CI18" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ18" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19">
@@ -5809,10 +5929,10 @@
         <v>2.0220914E7</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C19" t="n">
-        <v>2.97731327E9</v>
+        <v>2.998436717E9</v>
       </c>
       <c r="D19" t="e">
         <v>#N/A</v>
@@ -5821,34 +5941,34 @@
         <v>#N/A</v>
       </c>
       <c r="F19" t="n">
-        <v>347.0</v>
+        <v>350.0</v>
       </c>
       <c r="G19" t="s">
         <v>109</v>
       </c>
       <c r="H19" t="n">
-        <v>10955.0</v>
+        <v>23379.0</v>
       </c>
       <c r="I19" t="n">
-        <v>121731.0</v>
+        <v>103889.0</v>
       </c>
       <c r="J19" t="n">
-        <v>2619.0</v>
+        <v>3028.0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.333565629E9</v>
+        <v>2.428824781E9</v>
       </c>
       <c r="L19" t="n">
-        <v>97.2</v>
+        <v>97.8</v>
       </c>
       <c r="M19" t="n">
-        <v>77.7</v>
+        <v>78.2</v>
       </c>
       <c r="N19" t="n">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="O19" t="n">
-        <v>92.7</v>
+        <v>92.5</v>
       </c>
       <c r="P19" t="e">
         <v>#N/A</v>
@@ -5857,52 +5977,52 @@
         <v>95.7</v>
       </c>
       <c r="R19" t="n">
-        <v>94.7</v>
+        <v>95.3</v>
       </c>
       <c r="S19" t="n">
-        <v>86.9</v>
+        <v>88.1</v>
       </c>
       <c r="T19" t="n">
         <v>7.9</v>
       </c>
       <c r="U19" t="n">
-        <v>58.6</v>
+        <v>60.4</v>
       </c>
       <c r="V19" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="W19" t="n">
-        <v>57.3</v>
+        <v>62.9</v>
       </c>
       <c r="X19" t="n">
-        <v>20.1</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.8</v>
+        <v>68.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>29872.0</v>
+        <v>30190.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>5200.0</v>
+        <v>6005.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>135.0</v>
+        <v>140.0</v>
       </c>
       <c r="AC19" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AD19" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AE19" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF19" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG19" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH19" t="e">
         <v>#N/A</v>
@@ -5911,97 +6031,97 @@
         <v>2.0220927E7</v>
       </c>
       <c r="AJ19" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK19" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL19" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AM19" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN19" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AO19" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AP19" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ19" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR19" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS19" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.0220607E7</v>
+        <v>2.0220517E7</v>
       </c>
       <c r="AU19" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="AV19" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AW19" t="e">
         <v>#N/A</v>
       </c>
       <c r="AX19" t="n">
-        <v>9565.0</v>
+        <v>18148.0</v>
       </c>
       <c r="AY19" t="n">
-        <v>62000.0</v>
+        <v>93000.0</v>
       </c>
       <c r="AZ19" t="n">
-        <v>5.9303E8</v>
+        <v>1.687764E9</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.236</v>
+        <v>0.605</v>
       </c>
       <c r="BB19" t="n">
-        <v>2.508142E9</v>
+        <v>2.790013E9</v>
       </c>
       <c r="BC19" t="e">
         <v>#N/A</v>
       </c>
       <c r="BD19" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="BE19" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="BF19" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="BG19" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="BH19" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="BI19" t="n">
-        <v>544.0</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>3.4</v>
+        <v>483.0</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>301</v>
       </c>
       <c r="BK19" t="n">
-        <v>100.0</v>
+        <v>150.0</v>
       </c>
       <c r="BL19" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM19" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN19" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="BO19" t="e">
         <v>#N/A</v>
@@ -6010,75 +6130,75 @@
         <v>#N/A</v>
       </c>
       <c r="BQ19" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="BR19" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="BS19" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="BT19" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="BU19" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="BV19" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW19" t="n">
-        <v>68.0</v>
+        <v>75.0</v>
       </c>
       <c r="BX19" t="n">
-        <v>209.4</v>
+        <v>268.4</v>
       </c>
       <c r="BY19" t="n">
-        <v>31.84</v>
+        <v>33.54</v>
       </c>
       <c r="BZ19" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA19" t="n">
-        <v>110.0</v>
+        <v>116.0</v>
       </c>
       <c r="CB19" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="CC19" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="CD19" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE19" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF19" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="CG19" t="n">
-        <v>72.0</v>
+        <v>60.0</v>
       </c>
       <c r="CH19" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="CI19" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ19" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.0220914E7</v>
+        <v>2.0220801E7</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="n">
-        <v>2.998436717E9</v>
+        <v>3.029374456E9</v>
       </c>
       <c r="D20" t="e">
         <v>#N/A</v>
@@ -6087,253 +6207,253 @@
         <v>#N/A</v>
       </c>
       <c r="F20" t="n">
-        <v>343.0</v>
+        <v>298.0</v>
       </c>
       <c r="G20" t="s">
         <v>110</v>
       </c>
       <c r="H20" t="n">
-        <v>9832.0</v>
+        <v>14743.0</v>
       </c>
       <c r="I20" t="n">
-        <v>95511.0</v>
+        <v>83952.0</v>
       </c>
       <c r="J20" t="n">
-        <v>2531.0</v>
+        <v>2126.0</v>
       </c>
       <c r="K20" t="n">
-        <v>9.39067735E8</v>
+        <v>1.237706224E9</v>
       </c>
       <c r="L20" t="n">
-        <v>97.6</v>
+        <v>98.0</v>
       </c>
       <c r="M20" t="n">
-        <v>75.3</v>
+        <v>82.3</v>
       </c>
       <c r="N20" t="n">
-        <v>96.2</v>
+        <v>96.5</v>
       </c>
       <c r="O20" t="n">
-        <v>94.0</v>
+        <v>94.2</v>
       </c>
       <c r="P20" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.8</v>
+        <v>96.0</v>
       </c>
       <c r="R20" t="n">
-        <v>96.4</v>
+        <v>96.6</v>
       </c>
       <c r="S20" t="n">
-        <v>90.9</v>
+        <v>90.4</v>
       </c>
       <c r="T20" t="n">
-        <v>8.2</v>
+        <v>8.0</v>
       </c>
       <c r="U20" t="n">
-        <v>57.4</v>
+        <v>59.0</v>
       </c>
       <c r="V20" t="n">
-        <v>25.3</v>
+        <v>23.4</v>
       </c>
       <c r="W20" t="n">
-        <v>57.6</v>
+        <v>64.0</v>
       </c>
       <c r="X20" t="n">
-        <v>23.5</v>
+        <v>16.7</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.8</v>
+        <v>85.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>29592.0</v>
+        <v>29313.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>5347.0</v>
+        <v>4230.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>138.0</v>
+        <v>127.0</v>
       </c>
       <c r="AC20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD20" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AE20" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF20" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG20" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH20" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.0220923E7</v>
+        <v>2.022083E7</v>
       </c>
       <c r="AJ20" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.0220211E7</v>
+      </c>
+      <c r="AU20" t="s">
         <v>144</v>
       </c>
-      <c r="AL20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>168</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>173</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>174</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.0220216E7</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>207</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>210</v>
+      <c r="AV20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AW20" t="e">
         <v>#N/A</v>
       </c>
       <c r="AX20" t="n">
-        <v>9266.0</v>
+        <v>11091.0</v>
       </c>
       <c r="AY20" t="n">
-        <v>34000.0</v>
+        <v>26561.0</v>
       </c>
       <c r="AZ20" t="n">
-        <v>3.15044E8</v>
+        <v>2.94588051E8</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.113</v>
+        <v>0.12</v>
       </c>
       <c r="BB20" t="n">
-        <v>2.790013E9</v>
+        <v>2.454088919E9</v>
       </c>
       <c r="BC20" t="e">
         <v>#N/A</v>
       </c>
       <c r="BD20" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="BE20" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="BF20" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="BG20" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="BH20" t="n">
-        <v>1.14</v>
+        <v>2.97</v>
       </c>
       <c r="BI20" t="n">
-        <v>483.0</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>3.6</v>
+        <v>450.0</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>296</v>
       </c>
       <c r="BK20" t="n">
-        <v>150.0</v>
+        <v>30.0</v>
       </c>
       <c r="BL20" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM20" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN20" t="s">
-        <v>268</v>
-      </c>
-      <c r="BO20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BP20" t="e">
-        <v>#N/A</v>
+        <v>305</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>307</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>309</v>
       </c>
       <c r="BQ20" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="BR20" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="BS20" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="BT20" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="BU20" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="BV20" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="BW20" t="n">
-        <v>68.0</v>
+        <v>73.0</v>
       </c>
       <c r="BX20" t="n">
-        <v>218.5</v>
+        <v>271.0</v>
       </c>
       <c r="BY20" t="n">
-        <v>33.22</v>
+        <v>35.75</v>
       </c>
       <c r="BZ20" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="CA20" t="n">
-        <v>116.0</v>
+        <v>128.0</v>
       </c>
       <c r="CB20" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="CC20" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="CD20" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="CE20" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="CF20" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="CG20" t="n">
-        <v>72.0</v>
+        <v>60.0</v>
       </c>
       <c r="CH20" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="CI20" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="CJ20" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21">
@@ -6353,34 +6473,34 @@
         <v>#N/A</v>
       </c>
       <c r="F21" t="n">
-        <v>342.0</v>
+        <v>347.0</v>
       </c>
       <c r="G21" t="s">
         <v>111</v>
       </c>
       <c r="H21" t="n">
-        <v>13518.0</v>
+        <v>10955.0</v>
       </c>
       <c r="I21" t="n">
-        <v>86229.0</v>
+        <v>121731.0</v>
       </c>
       <c r="J21" t="n">
-        <v>3160.0</v>
+        <v>2619.0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.165643785E9</v>
+        <v>1.333565629E9</v>
       </c>
       <c r="L21" t="n">
-        <v>98.1</v>
+        <v>97.2</v>
       </c>
       <c r="M21" t="n">
-        <v>69.2</v>
+        <v>77.7</v>
       </c>
       <c r="N21" t="n">
         <v>96.1</v>
       </c>
       <c r="O21" t="n">
-        <v>93.6</v>
+        <v>92.7</v>
       </c>
       <c r="P21" t="e">
         <v>#N/A</v>
@@ -6389,112 +6509,112 @@
         <v>95.7</v>
       </c>
       <c r="R21" t="n">
-        <v>96.6</v>
+        <v>94.7</v>
       </c>
       <c r="S21" t="n">
-        <v>91.1</v>
+        <v>86.9</v>
       </c>
       <c r="T21" t="n">
-        <v>8.0</v>
+        <v>7.9</v>
       </c>
       <c r="U21" t="n">
-        <v>60.1</v>
+        <v>58.6</v>
       </c>
       <c r="V21" t="n">
-        <v>23.1</v>
+        <v>20.4</v>
       </c>
       <c r="W21" t="n">
-        <v>63.1</v>
+        <v>57.3</v>
       </c>
       <c r="X21" t="n">
-        <v>18.3</v>
+        <v>20.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>82.9</v>
+        <v>63.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>29828.0</v>
+        <v>29872.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>7794.0</v>
+        <v>5200.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>136.0</v>
+        <v>135.0</v>
       </c>
       <c r="AC21" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AD21" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AE21" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF21" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG21" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AH21" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.0220923E7</v>
+        <v>2.0220927E7</v>
       </c>
       <c r="AJ21" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK21" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL21" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AM21" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN21" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AO21" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AP21" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AQ21" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AR21" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AS21" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.0220405E7</v>
+        <v>2.0220607E7</v>
       </c>
       <c r="AU21" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="AV21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AW21" t="e">
         <v>#N/A</v>
       </c>
       <c r="AX21" t="n">
-        <v>11784.0</v>
+        <v>9565.0</v>
       </c>
       <c r="AY21" t="n">
-        <v>43000.0</v>
+        <v>62000.0</v>
       </c>
       <c r="AZ21" t="n">
-        <v>5.06712E8</v>
+        <v>5.9303E8</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.202</v>
+        <v>0.236</v>
       </c>
       <c r="BB21" t="n">
         <v>2.508142E9</v>
@@ -6503,16 +6623,16 @@
         <v>#N/A</v>
       </c>
       <c r="BD21" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="BE21" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="BF21" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="BG21" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="BH21" t="n">
         <v>1.23</v>
@@ -6520,20 +6640,20 @@
       <c r="BI21" t="n">
         <v>544.0</v>
       </c>
-      <c r="BJ21" t="n">
-        <v>3.4</v>
+      <c r="BJ21" t="s">
+        <v>302</v>
       </c>
       <c r="BK21" t="n">
         <v>100.0</v>
       </c>
       <c r="BL21" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="BM21" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="BN21" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="BO21" t="e">
         <v>#N/A</v>
@@ -6542,64 +6662,862 @@
         <v>#N/A</v>
       </c>
       <c r="BQ21" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="BR21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>332</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>335</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>151</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>209.4</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>31.84</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>336</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>347</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>349</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>350</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>352</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>353</v>
+      </c>
+      <c r="CI21" t="s">
+        <v>355</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.0220914E7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.998436717E9</v>
+      </c>
+      <c r="D22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F22" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" t="n">
+        <v>9832.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>95511.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2531.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9.39067735E8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>97.6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="P22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="R22" t="n">
+        <v>96.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>90.9</v>
+      </c>
+      <c r="T22" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="U22" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="X22" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>29592.0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>5347.0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>2.0220923E7</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.0220216E7</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>226</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>9266.0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>34000.0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>3.15044E8</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>2.790013E9</v>
+      </c>
+      <c r="BC22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>254</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>273</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>276</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>293</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>303</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>304</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>305</v>
+      </c>
+      <c r="BO22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>319</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>332</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>334</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>151</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>33.22</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>336</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>347</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>349</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>350</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>352</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>353</v>
+      </c>
+      <c r="CI22" t="s">
+        <v>355</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.0220926E7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.834367715E9</v>
+      </c>
+      <c r="D23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F23" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8379.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>104325.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3652.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8.74143291E8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="M23" t="n">
+        <v>64.6</v>
+      </c>
+      <c r="N23" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>93.1</v>
+      </c>
+      <c r="P23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="S23" t="n">
+        <v>86.9</v>
+      </c>
+      <c r="T23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="U23" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>29283.0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>9966.0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>2.0221005E7</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.0220803E7</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>231</v>
+      </c>
+      <c r="AW23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>90000.0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>9.0E8</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>2.7E9</v>
+      </c>
+      <c r="BC23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>255</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>276</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>294</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>467.0</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>300</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>303</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>304</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>305</v>
+      </c>
+      <c r="BO23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>321</v>
+      </c>
+      <c r="BR23" t="n">
         <v>22.0</v>
       </c>
-      <c r="BS21" t="n">
+      <c r="BS23" t="n">
         <v>64.0</v>
       </c>
-      <c r="BT21" t="s">
-        <v>293</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>294</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>142</v>
-      </c>
-      <c r="BW21" t="n">
+      <c r="BT23" t="s">
+        <v>333</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>335</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>151</v>
+      </c>
+      <c r="BW23" t="n">
         <v>64.0</v>
       </c>
-      <c r="BX21" t="n">
+      <c r="BX23" t="n">
+        <v>195.3</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>336</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>348</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>349</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>350</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>352</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>354</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>355</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2.0220914E7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.97731327E9</v>
+      </c>
+      <c r="D24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F24" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" t="n">
+        <v>13518.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>86229.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3160.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.165643785E9</v>
+      </c>
+      <c r="L24" t="n">
+        <v>98.1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>96.1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="P24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>96.6</v>
+      </c>
+      <c r="S24" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="X24" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>82.9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>29828.0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>7794.0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>2.0220923E7</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>212</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.0220405E7</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>228</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>11784.0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>43000.0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>5.06712E8</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>2.508142E9</v>
+      </c>
+      <c r="BC24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>240</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>259</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>276</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>279</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>544.0</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>302</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>303</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>304</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>305</v>
+      </c>
+      <c r="BO24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>320</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>333</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>334</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>151</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BX24" t="n">
         <v>197.3</v>
       </c>
-      <c r="BY21" t="n">
+      <c r="BY24" t="n">
         <v>33.86</v>
       </c>
-      <c r="BZ21" t="s">
-        <v>296</v>
-      </c>
-      <c r="CA21" t="n">
+      <c r="BZ24" t="s">
+        <v>336</v>
+      </c>
+      <c r="CA24" t="n">
         <v>107.0</v>
       </c>
-      <c r="CB21" t="n">
+      <c r="CB24" t="n">
         <v>5.8</v>
       </c>
-      <c r="CC21" t="s">
-        <v>308</v>
-      </c>
-      <c r="CD21" t="s">
-        <v>309</v>
-      </c>
-      <c r="CE21" t="s">
-        <v>310</v>
-      </c>
-      <c r="CF21" t="s">
-        <v>312</v>
-      </c>
-      <c r="CG21" t="n">
+      <c r="CC24" t="s">
+        <v>348</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>349</v>
+      </c>
+      <c r="CE24" t="s">
+        <v>350</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>352</v>
+      </c>
+      <c r="CG24" t="n">
         <v>58.0</v>
       </c>
-      <c r="CH21" t="s">
-        <v>314</v>
-      </c>
-      <c r="CI21" t="s">
-        <v>315</v>
-      </c>
-      <c r="CJ21" t="s">
-        <v>317</v>
+      <c r="CH24" t="s">
+        <v>354</v>
+      </c>
+      <c r="CI24" t="s">
+        <v>355</v>
+      </c>
+      <c r="CJ24" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
